--- a/target/test-classes/utils/Book1.xlsx
+++ b/target/test-classes/utils/Book1.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{484CF5C3-3F0D-4BD7-907A-107C080CE6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KARTHI\automation\AppleUITesting\src\test\java\utils\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC3145D-B01B-49F3-93F9-088795B83D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8A239A6-D05C-4CC8-8AB7-D674C5DB8D65}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,10 +33,10 @@
     <t>Model</t>
   </si>
   <si>
-    <t>watch</t>
+    <t>iphone</t>
   </si>
   <si>
-    <t>apple watch ultra 2</t>
+    <t>iphone 16</t>
   </si>
 </sst>
 </file>
@@ -383,16 +387,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F703FA80-93E7-4D04-994E-F140B1CBAE3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C062244-2F97-4FC5-B3A1-19DBADFD5996}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -412,6 +412,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/test-classes/utils/Book1.xlsx
+++ b/target/test-classes/utils/Book1.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KARTHI\automation\AppleUITesting\src\test\java\utils\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC3145D-B01B-49F3-93F9-088795B83D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{05D0F15D-2AEF-4BEB-AEF0-47DBAE7875D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8A239A6-D05C-4CC8-8AB7-D674C5DB8D65}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:Q14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,18 +21,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Product</t>
   </si>
   <si>
+    <t>iphone</t>
+  </si>
+  <si>
     <t>Model</t>
   </si>
   <si>
-    <t>iphone</t>
-  </si>
-  <si>
     <t>iphone 16</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>6_1inch</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>128gb</t>
+  </si>
+  <si>
+    <t>noTradeIn</t>
+  </si>
+  <si>
+    <t>noapplecare</t>
+  </si>
+  <si>
+    <t>Tradein</t>
+  </si>
+  <si>
+    <t>Coverage</t>
   </si>
 </sst>
 </file>
@@ -108,7 +134,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -120,7 +146,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -167,23 +193,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -219,23 +228,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -387,8 +379,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C062244-2F97-4FC5-B3A1-19DBADFD5996}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D6E721-DE52-4CD8-B5D0-80E36895B613}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,15 +391,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
